--- a/common/reports/templates/rolesTemplate.xlsx
+++ b/common/reports/templates/rolesTemplate.xlsx
@@ -111,14 +111,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -399,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,25 +417,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -439,14 +451,22 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.27" right="0.22" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/common/reports/templates/rolesTemplate.xlsx
+++ b/common/reports/templates/rolesTemplate.xlsx
@@ -111,16 +111,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -404,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -417,23 +416,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -451,17 +450,13 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
